--- a/Manual Calculations.xlsx
+++ b/Manual Calculations.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jensb\Documents\NetBeansProjects\p3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="27320" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="27315" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zeller Positive" sheetId="9" r:id="rId1"/>
-    <sheet name="Day Count" sheetId="10" r:id="rId2"/>
+    <sheet name="gitworks" sheetId="11" r:id="rId2"/>
+    <sheet name="Day Count" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -556,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,21 +572,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="80" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
@@ -597,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -617,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="4">
         <v>5</v>
@@ -641,7 +647,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>VLOOKUP(B4,$B$13:$C$19,2,FALSE)</f>
         <v>Tuesday</v>
@@ -677,7 +683,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" s="11">
         <v>13</v>
       </c>
@@ -691,7 +697,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -703,7 +709,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -731,7 +737,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>SUM(B8:H8)</f>
         <v>151155</v>
@@ -768,7 +774,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -780,7 +786,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -792,7 +798,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -804,7 +810,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -816,7 +822,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -832,7 +838,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -848,7 +854,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
@@ -864,7 +870,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
@@ -882,7 +888,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
@@ -898,7 +904,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
@@ -916,7 +922,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6</v>
       </c>
@@ -934,7 +940,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -946,7 +952,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -960,18 +966,18 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I22"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I23" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I24"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I25" s="12" t="s">
         <v>39</v>
       </c>
@@ -989,26 +995,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.6640625" customWidth="1"/>
+    <col min="12" max="12" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1025,7 +1043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -1047,7 +1065,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4">
@@ -1069,7 +1087,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1084,7 +1102,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -1106,7 +1124,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1120,7 +1138,7 @@
         <v>4.0027397260273974</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1130,7 +1148,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1140,7 +1158,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1150,7 +1168,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1160,7 +1178,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1172,7 +1190,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1182,7 +1200,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>0</v>
@@ -1196,7 +1214,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1</v>
@@ -1210,7 +1228,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>2</v>
@@ -1224,7 +1242,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>3</v>
@@ -1238,7 +1256,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17">
         <v>4</v>
@@ -1252,7 +1270,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>5</v>
@@ -1266,7 +1284,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>6</v>
